--- a/Шаблоны/CheboksarySalary.xlsx
+++ b/Шаблоны/CheboksarySalary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\АнтонВильсон\Desktop\Work\InThemJira\UI5\Inthem\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200C4F75-3686-42E5-99E5-8445B61047A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5738BBF-3498-4266-9BBD-DB7FC1114966}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чебоксары. Оклад" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Должность</t>
   </si>
@@ -197,13 +197,19 @@
   </si>
   <si>
     <t>Старший консультант поддержки К4.1</t>
+  </si>
+  <si>
+    <t>Период: С</t>
+  </si>
+  <si>
+    <t>Период: По</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +229,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF32363A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -271,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +306,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -573,35 +592,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -609,15 +636,127 @@
         <f>INDEX(Должности!$A$2:$D$300,MATCH($A2,Должности!$B$2:$B$300,0),1)</f>
         <v>3019009437465791026</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="9">
+        <v>43831</v>
+      </c>
+      <c r="D2" s="9">
+        <v>44561</v>
+      </c>
+      <c r="E2" s="10">
+        <v>27011</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($A3,Должности!$B$2:$B$300,0),1)</f>
+        <v>232082407950075194</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43831</v>
+      </c>
+      <c r="D3" s="9">
+        <v>44561</v>
+      </c>
+      <c r="E3">
+        <v>21265</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($A4,Должности!$B$2:$B$300,0),1)</f>
+        <v>5579769468551515989</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43831</v>
+      </c>
+      <c r="D4" s="9">
+        <v>44561</v>
+      </c>
+      <c r="E4">
+        <v>18391</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($A5,Должности!$B$2:$B$300,0),1)</f>
+        <v>6486613692234809788</v>
+      </c>
+      <c r="C5" s="9">
+        <v>43831</v>
+      </c>
+      <c r="D5" s="9">
+        <v>44561</v>
+      </c>
+      <c r="E5">
+        <v>57471</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($A6,Должности!$B$2:$B$300,0),1)</f>
+        <v>6791707149787480605</v>
+      </c>
+      <c r="C6" s="9">
+        <v>43831</v>
+      </c>
+      <c r="D6" s="9">
+        <v>44561</v>
+      </c>
+      <c r="E6">
+        <v>18391</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="str">
+        <f>INDEX(Должности!$A$2:$D$300,MATCH($A7,Должности!$B$2:$B$300,0),1)</f>
+        <v>8610346778526564396</v>
+      </c>
+      <c r="C7" s="9">
+        <v>43831</v>
+      </c>
+      <c r="D7" s="9">
+        <v>44561</v>
+      </c>
+      <c r="E7">
+        <v>22989</v>
+      </c>
+      <c r="F7">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
